--- a/Controle de desafios.xlsx
+++ b/Controle de desafios.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luccagazotto/Documents/UNICAMP/2023.2/MC821/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keapartners-my.sharepoint.com/personal/lucca_vettori_kea-partners_com_br/Documents/Área de Trabalho/faculdade/2023.2/MC821/MC821/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A22FF6-11E1-DA4C-B462-42312386847C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="6_{68F8208F-24D2-487A-91AC-5F7B662DE663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61CD1ED0-DD29-4E55-A07F-B54D0771F7E2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{E085B941-41C9-EF47-AAA2-61D55C4CBEA3}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{E085B941-41C9-EF47-AAA2-61D55C4CBEA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Semana 1</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -503,15 +506,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7152BE75-4268-D44F-A8F4-F92373EB7DFD}">
-  <dimension ref="A2:Q15"/>
+  <dimension ref="A2:Q17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -562,11 +565,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -583,7 +588,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -604,14 +609,18 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -625,7 +634,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -646,14 +655,18 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -667,14 +680,18 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -688,13 +705,15 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -709,13 +728,15 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -730,13 +751,17 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -751,14 +776,16 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -772,7 +799,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -793,7 +820,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -814,7 +841,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -835,6 +862,15 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B3:Q15)</f>
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Controle de desafios.xlsx
+++ b/Controle de desafios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keapartners-my.sharepoint.com/personal/lucca_vettori_kea-partners_com_br/Documents/Área de Trabalho/faculdade/2023.2/MC821/MC821/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="6_{68F8208F-24D2-487A-91AC-5F7B662DE663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61CD1ED0-DD29-4E55-A07F-B54D0771F7E2}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="6_{68F8208F-24D2-487A-91AC-5F7B662DE663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{300A33E5-9108-4235-8911-EAEF982A0645}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{E085B941-41C9-EF47-AAA2-61D55C4CBEA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E085B941-41C9-EF47-AAA2-61D55C4CBEA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -509,7 +517,7 @@
   <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -575,7 +583,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -596,7 +606,9 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -692,7 +704,9 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -868,11 +882,16 @@
       </c>
       <c r="B17">
         <f>SUM(B3:Q15)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:Q15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>